--- a/InfFinal_columnas del dataset.xlsx
+++ b/InfFinal_columnas del dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/495715c1b5296d13/MB_Magister_ y_ otros/DATA_SCIENCE_UDD/6. CAPSTONE/Capstone_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{81B5AEEC-E5EB-414A-BE4E-9395C1A4E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A85FDE-A5A4-8C49-8073-110C4FC5D175}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{81B5AEEC-E5EB-414A-BE4E-9395C1A4E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F151B7-8420-E445-96F4-65E5BD6EB9E2}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1000" windowWidth="27700" windowHeight="16440" xr2:uid="{BF6980E2-339B-E849-BC8D-B1084D9C50D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>Columna</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Formato</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,15 +361,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +431,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,666 +777,670 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B72193-D48F-5240-82D6-7E8E2F6632B2}">
   <dimension ref="D2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="F24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="4:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="F28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="F35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="4:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="4"/>
+      <c r="F36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="4:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="4"/>
+      <c r="F42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="6"/>
+      <c r="F51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="4"/>
+      <c r="F52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="4"/>
+      <c r="F58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
